--- a/biology/Zoologie/Échasse_d'Amérique/Échasse_d'Amérique.xlsx
+++ b/biology/Zoologie/Échasse_d'Amérique/Échasse_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chasse_d%27Am%C3%A9rique</t>
+          <t>Échasse_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himantopus mexicanus
 L'Échasse d'Amérique (Himantopus mexicanus) est une espèce d'oiseaux limicoles de la famille des Recurvirostridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chasse_d%27Am%C3%A9rique</t>
+          <t>Échasse_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 38 cm de longueur. Sa silhouette élégante est caractéristique avec deux très longues pattes roses (dépassant nettement la queue en vol), un long cou et un bec fin et long. Le dessus du plumage est noir à l'exception du croupion et de la queue blancs tout comme le dessous du corps.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chasse_d%27Am%C3%A9rique</t>
+          <t>Échasse_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple une partie de l'Amérique : Costa Rica...
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chasse_d%27Am%C3%A9rique</t>
+          <t>Échasse_d'Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce consomme des invertébrés qu'elle capture en eau douce ou salée.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chasse_d%27Am%C3%A9rique</t>
+          <t>Échasse_d'Amérique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Himantopus mexicanus knudseni Stejneger 1887 ;
